--- a/data/3.xlsx
+++ b/data/3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Ngày</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t>7.1185E7</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>6.4625E7</t>
   </si>
 </sst>
 </file>
@@ -74,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -96,12 +102,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>0</v>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
